--- a/05_Pandas_DataR_dataframe/01_Pandas_python_style/data/emp_sheetname.xlsx
+++ b/05_Pandas_DataR_dataframe/01_Pandas_python_style/data/emp_sheetname.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="emp"/>
@@ -120,13 +120,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -179,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -190,13 +190,7 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -208,17 +202,14 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -527,25 +518,25 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="7.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="10.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -555,8 +546,8 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="6">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -565,15 +556,15 @@
       <c r="C2" s="4">
         <v>623.3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>40909</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="6">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -582,48 +573,48 @@
       <c r="C3" s="4">
         <v>515.2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>41540</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="6">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>611</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>41958</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="6">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>729</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>41770</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -633,32 +624,32 @@
       <c r="C6" s="4">
         <v>843.25</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>42090</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="6">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>578</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>41415</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="6">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -667,15 +658,15 @@
       <c r="C8" s="4">
         <v>632.8</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>41485</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="6">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -684,7 +675,7 @@
       <c r="C9" s="4">
         <v>722.5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>41807</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -703,19 +694,19 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -723,7 +714,7 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -731,7 +722,7 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -739,7 +730,7 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -747,7 +738,7 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -755,7 +746,7 @@
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -763,7 +754,7 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -771,7 +762,7 @@
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -779,7 +770,7 @@
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -799,12 +790,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -838,7 +829,7 @@
       <c r="D2" s="4">
         <v>623.3</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>40909</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -855,10 +846,10 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="2">
         <v>611</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>41958</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -875,10 +866,10 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>578</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>41415</v>
       </c>
       <c r="F4" s="1" t="s">
